--- a/Document/인턴_산출물_프로덕트백로그_v1.xlsx
+++ b/Document/인턴_산출물_프로덕트백로그_v1.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
   <si>
     <t>개발자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -269,6 +269,12 @@
   <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -507,7 +513,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -591,6 +597,9 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1490,7 +1499,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1500,7 +1509,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1510,7 +1519,7 @@
       <c r="H37" s="12"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1520,7 +1529,7 @@
       <c r="H38" s="12"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1530,7 +1539,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1540,7 +1549,7 @@
       <c r="H40" s="12"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1550,7 +1559,7 @@
       <c r="H41" s="12"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1560,7 +1569,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1570,7 +1579,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1580,7 +1589,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -9866,7 +9875,7 @@
   <dimension ref="A1:M936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -9936,12 +9945,14 @@
         <v>18</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="23"/>
+      <c r="F2" s="28">
+        <v>43378</v>
+      </c>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="10"/>
@@ -9978,13 +9989,17 @@
         <v>19</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="F4" s="28">
+        <v>43374</v>
+      </c>
+      <c r="G4" s="28">
+        <v>43377</v>
+      </c>
       <c r="H4" s="23"/>
       <c r="I4" s="10"/>
       <c r="J4" s="8"/>
@@ -10001,13 +10016,17 @@
         <v>23</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="28">
+        <v>43374</v>
+      </c>
+      <c r="G5" s="21">
+        <v>43377</v>
+      </c>
       <c r="H5" s="21"/>
       <c r="I5" s="10"/>
       <c r="J5" s="8"/>
@@ -10022,13 +10041,17 @@
         <v>24</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="28">
+        <v>43374</v>
+      </c>
+      <c r="G6" s="21">
+        <v>43377</v>
+      </c>
       <c r="H6" s="21"/>
       <c r="I6" s="10"/>
       <c r="J6" s="8"/>
@@ -10043,13 +10066,17 @@
         <v>25</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="28">
+        <v>43374</v>
+      </c>
+      <c r="G7" s="21">
+        <v>43377</v>
+      </c>
       <c r="H7" s="21"/>
       <c r="I7" s="10"/>
       <c r="J7" s="8"/>
@@ -10087,13 +10114,17 @@
         <v>28</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="F9" s="28">
+        <v>43374</v>
+      </c>
+      <c r="G9" s="21">
+        <v>43377</v>
+      </c>
       <c r="H9" s="23"/>
       <c r="I9" s="10"/>
       <c r="J9" s="8"/>
@@ -10380,7 +10411,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:13" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -10390,7 +10421,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:13" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -10400,7 +10431,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -10410,7 +10441,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -10420,7 +10451,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -10430,7 +10461,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -10440,7 +10471,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="1:9" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -10450,7 +10481,7 @@
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
     </row>
-    <row r="38" spans="1:9" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -10460,7 +10491,7 @@
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
     </row>
-    <row r="39" spans="1:9" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -10470,7 +10501,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="1:9" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>

--- a/Document/인턴_산출물_프로덕트백로그_v1.xlsx
+++ b/Document/인턴_산출물_프로덕트백로그_v1.xlsx
@@ -9875,7 +9875,7 @@
   <dimension ref="A1:M936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -9945,7 +9945,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>30</v>
@@ -9953,7 +9953,9 @@
       <c r="F2" s="28">
         <v>43378</v>
       </c>
-      <c r="G2" s="23"/>
+      <c r="G2" s="28">
+        <v>43379</v>
+      </c>
       <c r="H2" s="23"/>
       <c r="I2" s="10"/>
       <c r="J2" s="8"/>
@@ -9968,13 +9970,17 @@
         <v>20</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="F3" s="28">
+        <v>43378</v>
+      </c>
+      <c r="G3" s="28">
+        <v>43379</v>
+      </c>
       <c r="H3" s="23"/>
       <c r="I3" s="10"/>
       <c r="J3" s="8"/>
@@ -10016,7 +10022,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>30</v>
@@ -10024,9 +10030,7 @@
       <c r="F5" s="28">
         <v>43374</v>
       </c>
-      <c r="G5" s="21">
-        <v>43377</v>
-      </c>
+      <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="10"/>
       <c r="J5" s="8"/>
@@ -10139,12 +10143,14 @@
         <v>25</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="28">
+        <v>43379</v>
+      </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="10"/>

--- a/Document/인턴_산출물_프로덕트백로그_v1.xlsx
+++ b/Document/인턴_산출물_프로덕트백로그_v1.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
   <si>
     <t>개발자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -275,6 +275,10 @@
   </si>
   <si>
     <t>In progress</t>
+  </si>
+  <si>
+    <t>검색, 페이징 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9874,8 +9878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M936"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -10031,7 +10035,9 @@
         <v>43374</v>
       </c>
       <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="H5" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="I5" s="10"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -10095,13 +10101,17 @@
         <v>26</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="21">
+        <v>43380</v>
+      </c>
+      <c r="G8" s="21">
+        <v>43380</v>
+      </c>
       <c r="H8" s="21"/>
       <c r="I8" s="10"/>
       <c r="J8" s="8"/>
@@ -10166,13 +10176,17 @@
         <v>29</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="21">
+        <v>43380</v>
+      </c>
+      <c r="G11" s="21">
+        <v>43380</v>
+      </c>
       <c r="H11" s="21"/>
       <c r="I11" s="10"/>
       <c r="J11" s="8"/>

--- a/Document/인턴_산출물_프로덕트백로그_v1.xlsx
+++ b/Document/인턴_산출물_프로덕트백로그_v1.xlsx
@@ -277,7 +277,7 @@
     <t>In progress</t>
   </si>
   <si>
-    <t>검색, 페이징 처리</t>
+    <t>페이징 처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9879,7 +9879,7 @@
   <dimension ref="A1:M936"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -10153,7 +10153,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>30</v>
@@ -10161,7 +10161,9 @@
       <c r="F10" s="28">
         <v>43379</v>
       </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="21">
+        <v>43381</v>
+      </c>
       <c r="H10" s="21"/>
       <c r="I10" s="10"/>
       <c r="J10" s="8"/>

--- a/Document/인턴_산출물_프로덕트백로그_v1.xlsx
+++ b/Document/인턴_산출물_프로덕트백로그_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1395" windowWidth="19410" windowHeight="10995" activeTab="1"/>
+    <workbookView xWindow="1680" yWindow="1395" windowWidth="19410" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="관리자_개발목록" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
   <si>
     <t>개발자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -278,6 +278,10 @@
   </si>
   <si>
     <t>페이징 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정하기 버튼 활성화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -923,11 +927,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M936"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -938,7 +942,7 @@
     <col min="4" max="4" width="8.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.625" style="13" customWidth="1"/>
     <col min="6" max="7" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.625" style="4" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="7.625" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="8.625" style="1" hidden="1" customWidth="1"/>
@@ -1062,14 +1066,18 @@
         <v>23</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="28">
+        <v>43383</v>
+      </c>
       <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="H5" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="I5" s="10"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -1146,13 +1154,17 @@
         <v>40</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="F9" s="28">
+        <v>43383</v>
+      </c>
+      <c r="G9" s="28">
+        <v>43383</v>
+      </c>
       <c r="H9" s="23"/>
       <c r="I9" s="10"/>
       <c r="J9" s="8"/>
@@ -9878,8 +9890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M936"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>

--- a/Document/인턴_산출물_프로덕트백로그_v1.xlsx
+++ b/Document/인턴_산출물_프로덕트백로그_v1.xlsx
@@ -931,7 +931,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -1001,12 +1001,14 @@
         <v>13</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="23"/>
+      <c r="F2" s="28">
+        <v>43388</v>
+      </c>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="10"/>
@@ -1022,13 +1024,17 @@
         <v>14</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="F3" s="28">
+        <v>43388</v>
+      </c>
+      <c r="G3" s="28">
+        <v>43388</v>
+      </c>
       <c r="H3" s="23"/>
       <c r="I3" s="10"/>
       <c r="J3" s="8"/>
@@ -1043,12 +1049,14 @@
         <v>15</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="28">
+        <v>43389</v>
+      </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
       <c r="I4" s="10"/>
@@ -1091,12 +1099,14 @@
         <v>24</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="28">
+        <v>43383</v>
+      </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="10"/>
@@ -1112,12 +1122,14 @@
         <v>33</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="28">
+        <v>43389</v>
+      </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="10"/>
@@ -1133,13 +1145,17 @@
         <v>34</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="28">
+        <v>43383</v>
+      </c>
+      <c r="G8" s="28">
+        <v>43383</v>
+      </c>
       <c r="H8" s="21"/>
       <c r="I8" s="10"/>
       <c r="J8" s="8"/>
@@ -9891,7 +9907,7 @@
   <dimension ref="A1:M936"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>

--- a/Document/인턴_산출물_프로덕트백로그_v1.xlsx
+++ b/Document/인턴_산출물_프로덕트백로그_v1.xlsx
@@ -931,7 +931,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -1001,7 +1001,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>39</v>
@@ -1009,7 +1009,9 @@
       <c r="F2" s="28">
         <v>43388</v>
       </c>
-      <c r="G2" s="23"/>
+      <c r="G2" s="28">
+        <v>43390</v>
+      </c>
       <c r="H2" s="23"/>
       <c r="I2" s="10"/>
       <c r="J2" s="8"/>
@@ -1049,7 +1051,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>39</v>
@@ -1057,7 +1059,9 @@
       <c r="F4" s="28">
         <v>43389</v>
       </c>
-      <c r="G4" s="23"/>
+      <c r="G4" s="28">
+        <v>43390</v>
+      </c>
       <c r="H4" s="23"/>
       <c r="I4" s="10"/>
       <c r="J4" s="8"/>
@@ -1074,7 +1078,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>39</v>
@@ -1082,7 +1086,9 @@
       <c r="F5" s="28">
         <v>43383</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="28">
+        <v>43390</v>
+      </c>
       <c r="H5" s="21" t="s">
         <v>44</v>
       </c>
@@ -1099,7 +1105,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>39</v>
@@ -1107,7 +1113,9 @@
       <c r="F6" s="28">
         <v>43383</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="28">
+        <v>43390</v>
+      </c>
       <c r="H6" s="21"/>
       <c r="I6" s="10"/>
       <c r="J6" s="8"/>
@@ -1122,7 +1130,7 @@
         <v>33</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>39</v>
@@ -1130,7 +1138,9 @@
       <c r="F7" s="28">
         <v>43389</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="28">
+        <v>43390</v>
+      </c>
       <c r="H7" s="21"/>
       <c r="I7" s="10"/>
       <c r="J7" s="8"/>
@@ -1202,7 +1212,9 @@
       <c r="E10" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="21">
+        <v>43390</v>
+      </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="10"/>

--- a/Document/인턴_산출물_프로덕트백로그_v1.xlsx
+++ b/Document/인턴_산출물_프로덕트백로그_v1.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
   <si>
     <t>개발자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -150,9 +150,6 @@
   <si>
     <t>개발완료일</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not started</t>
   </si>
   <si>
     <t>관리자</t>
@@ -278,10 +275,6 @@
   </si>
   <si>
     <t>페이징 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정하기 버튼 활성화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -931,7 +924,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -974,7 +967,7 @@
         <v>10</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="11"/>
       <c r="J1" s="2" t="s">
@@ -992,19 +985,19 @@
     </row>
     <row r="2" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="28">
         <v>43388</v>
@@ -1023,13 +1016,13 @@
       <c r="A3" s="17"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="28">
         <v>43388</v>
@@ -1048,13 +1041,13 @@
       <c r="A4" s="17"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="28">
         <v>43389</v>
@@ -1072,16 +1065,16 @@
     <row r="5" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="28">
         <v>43383</v>
@@ -1089,9 +1082,7 @@
       <c r="G5" s="28">
         <v>43390</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>44</v>
-      </c>
+      <c r="H5" s="21"/>
       <c r="I5" s="10"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -1102,13 +1093,13 @@
       <c r="A6" s="17"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="28">
         <v>43383</v>
@@ -1127,13 +1118,13 @@
       <c r="A7" s="17"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="28">
         <v>43389</v>
@@ -1152,13 +1143,13 @@
       <c r="A8" s="17"/>
       <c r="B8" s="19"/>
       <c r="C8" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="28">
         <v>43383</v>
@@ -1177,13 +1168,13 @@
       <c r="A9" s="17"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>41</v>
-      </c>
       <c r="E9" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="28">
         <v>43383</v>
@@ -1201,21 +1192,23 @@
     <row r="10" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="21">
         <v>43390</v>
       </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="21">
+        <v>43390</v>
+      </c>
       <c r="H10" s="21"/>
       <c r="I10" s="10"/>
       <c r="J10" s="8"/>
@@ -1227,16 +1220,20 @@
       <c r="A11" s="17"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="21">
+        <v>43390</v>
+      </c>
+      <c r="G11" s="21">
+        <v>43390</v>
+      </c>
       <c r="H11" s="21"/>
       <c r="I11" s="10"/>
       <c r="J11" s="8"/>
@@ -1248,16 +1245,20 @@
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="F12" s="21">
+        <v>43390</v>
+      </c>
+      <c r="G12" s="21">
+        <v>43390</v>
+      </c>
       <c r="H12" s="21"/>
       <c r="I12" s="10"/>
       <c r="J12" s="8"/>
@@ -1269,16 +1270,20 @@
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="21">
+        <v>43390</v>
+      </c>
+      <c r="G13" s="21">
+        <v>43390</v>
+      </c>
       <c r="H13" s="21"/>
       <c r="I13" s="10"/>
       <c r="J13" s="8"/>
@@ -9962,7 +9967,7 @@
         <v>10</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="11"/>
       <c r="J1" s="2" t="s">
@@ -9980,19 +9985,19 @@
     </row>
     <row r="2" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="28">
         <v>43378</v>
@@ -10011,13 +10016,13 @@
       <c r="A3" s="25"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="28">
         <v>43378</v>
@@ -10036,13 +10041,13 @@
       <c r="A4" s="25"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="28">
         <v>43374</v>
@@ -10060,23 +10065,23 @@
     <row r="5" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="28">
         <v>43374</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="8"/>
@@ -10088,13 +10093,13 @@
       <c r="A6" s="25"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="28">
         <v>43374</v>
@@ -10113,13 +10118,13 @@
       <c r="A7" s="25"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="28">
         <v>43374</v>
@@ -10138,13 +10143,13 @@
       <c r="A8" s="25"/>
       <c r="B8" s="27"/>
       <c r="C8" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="21">
         <v>43380</v>
@@ -10162,16 +10167,16 @@
     <row r="9" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A9" s="25"/>
       <c r="B9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="28">
         <v>43374</v>
@@ -10190,13 +10195,13 @@
       <c r="A10" s="25"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="28">
         <v>43379</v>
@@ -10215,13 +10220,13 @@
       <c r="A11" s="25"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="21">
         <v>43380</v>

--- a/Document/인턴_산출물_프로덕트백로그_v1.xlsx
+++ b/Document/인턴_산출물_프로덕트백로그_v1.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
   <si>
     <t>개발자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -271,10 +271,11 @@
     <t>Done</t>
   </si>
   <si>
-    <t>In progress</t>
+    <t>홈화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>페이징 처리</t>
+    <t>김희원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -924,7 +925,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -1293,12 +1294,22 @@
     </row>
     <row r="14" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
-      <c r="B14" s="19"/>
+      <c r="B14" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="D14" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="28">
+        <v>43393</v>
+      </c>
+      <c r="G14" s="28">
+        <v>43393</v>
+      </c>
       <c r="H14" s="23"/>
       <c r="I14" s="10"/>
       <c r="J14" s="8"/>
@@ -1458,7 +1469,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:13" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1468,7 +1479,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:13" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1478,7 +1489,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:13" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1488,7 +1499,7 @@
       <c r="H29" s="12"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1498,7 +1509,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:13" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1508,7 +1519,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:13" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1518,7 +1529,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1528,7 +1539,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1538,7 +1549,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -9924,7 +9935,7 @@
   <dimension ref="A1:M936"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -10071,7 +10082,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>29</v>
@@ -10079,10 +10090,10 @@
       <c r="F5" s="28">
         <v>43374</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21" t="s">
-        <v>42</v>
+      <c r="G5" s="21">
+        <v>43394</v>
       </c>
+      <c r="H5" s="21"/>
       <c r="I5" s="10"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -10105,7 +10116,7 @@
         <v>43374</v>
       </c>
       <c r="G6" s="21">
-        <v>43377</v>
+        <v>43394</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="10"/>
@@ -10387,7 +10398,7 @@
       <c r="H21" s="22"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" ht="12" x14ac:dyDescent="0.3">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -10398,7 +10409,7 @@
       <c r="H22" s="22"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -10408,7 +10419,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -10418,7 +10429,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -10428,7 +10439,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -10438,7 +10449,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -10448,7 +10459,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -10458,7 +10469,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -10468,7 +10479,7 @@
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:13" ht="11.45" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
